--- a/DateBase/orders/Nha Thu_2025-5-21.xlsx
+++ b/DateBase/orders/Nha Thu_2025-5-21.xlsx
@@ -609,6 +609,9 @@
       <c r="C21" t="str">
         <v>731_芍药冰点_undefined_undefined_10stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -670,7 +673,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>09610875135943101010302.57.510100</v>
+        <v>09610875135943101010302.57.510106</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-5-21.xlsx
+++ b/DateBase/orders/Nha Thu_2025-5-21.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -613,9 +613,92 @@
         <v>6</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>5</v>
+      </c>
+      <c r="C22" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>402_大飞燕深紫色_delphinium purple_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F27" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F28" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>6</v>
+      </c>
+      <c r="C29" t="str">
+        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>331_猫尾草_cat tail grass_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>731_芍药冰点_undefined_undefined_10stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -673,7 +756,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>09610875135943101010302.57.510106</v>
+        <v>09610875135943101010302.57.510106105101010101510150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-5-21.xlsx
+++ b/DateBase/orders/Nha Thu_2025-5-21.xlsx
@@ -695,6 +695,9 @@
       <c r="C31" t="str">
         <v>731_芍药冰点_undefined_undefined_10stems</v>
       </c>
+      <c r="F31" t="str">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -756,7 +759,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>09610875135943101010302.57.510106105101010101510150</v>
+        <v>09610875135943101010302.57.510106105101010101510154</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-5-21.xlsx
+++ b/DateBase/orders/Nha Thu_2025-5-21.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -699,9 +699,251 @@
         <v>4</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>513_松虫草粉白_scabiosa rainbow_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>421_松虫草黑色_scabiosa black_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
+      <c r="A36" t="str">
+        <v>7</v>
+      </c>
+      <c r="C36" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>504_大花葱_Allium _undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>504_大花葱_Allium _undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F41" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>455_粉星花_tweedia pink_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>458_蓝盆花白色_Scabiosa caucasica white_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>552_蓝盆花紫色_Scabiosa caucasica purple_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>1</v>
+      </c>
+      <c r="C46" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F47" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>574_迷你菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>2</v>
+      </c>
+      <c r="C50" t="str">
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F50" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F51" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F52" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F55" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>3</v>
+      </c>
+      <c r="C56" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>402_大飞燕深紫色_delphinium purple_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L60"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -759,7 +1001,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>09610875135943101010302.57.510106105101010101510154</v>
+        <v>09610875135943101010302.57.51010610510101010151015410158520105101010515531991015681586815710110</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-5-21.xlsx
+++ b/DateBase/orders/Nha Thu_2025-5-21.xlsx
@@ -940,6 +940,9 @@
       <c r="C60" t="str">
         <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
       </c>
+      <c r="F60" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1001,7 +1004,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>09610875135943101010302.57.51010610510101010151015410158520105101010515531991015681586815710110</v>
+        <v>09610875135943101010302.57.51010610510101010151015410158520105101010515531991015681586815710111</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-5-21.xlsx
+++ b/DateBase/orders/Nha Thu_2025-5-21.xlsx
@@ -941,7 +941,7 @@
         <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
       </c>
       <c r="F60" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1004,7 +1004,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>09610875135943101010302.57.51010610510101010151015410158520105101010515531991015681586815710111</v>
+        <v>09610875135943101010302.57.510106105101010101510154101585201051010105155319910156815868157101110</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-5-21.xlsx
+++ b/DateBase/orders/Nha Thu_2025-5-21.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -944,9 +944,159 @@
         <v>10</v>
       </c>
     </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F61" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F62" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>4</v>
+      </c>
+      <c r="C63" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>455_粉星花_tweedia pink_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>504_大花葱_Allium _undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>504_大花葱_Allium _undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>504_大花葱_Allium _undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>5</v>
+      </c>
+      <c r="C69" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F69" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
+      </c>
+      <c r="F70" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F71" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F72" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>513_松虫草粉白_scabiosa rainbow_undefined_1bunch</v>
+      </c>
+      <c r="F73" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F74" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>421_松虫草黑色_scabiosa black_undefined_1bunch</v>
+      </c>
+      <c r="F75" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>552_蓝盆花紫色_Scabiosa caucasica purple_undefined_1bunch</v>
+      </c>
+      <c r="F76" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>458_蓝盆花白色_Scabiosa caucasica white_undefined_1bunch</v>
+      </c>
+      <c r="F77" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F78" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L60"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L78"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1004,7 +1154,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>09610875135943101010302.57.510106105101010101510154101585201051010105155319910156815868157101110</v>
+        <v>09610875135943101010302.57.510106105101010101510154101585201051010105155319910156815868157101110202015105152010915151515201010205</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-5-21.xlsx
+++ b/DateBase/orders/Nha Thu_2025-5-21.xlsx
@@ -1156,6 +1156,9 @@
       <c r="G2" t="str">
         <v>09610875135943101010302.57.510106105101010101510154101585201051010105155319910156815868157101110202015105152010915151515201010205</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
